--- a/Class_VI/Formative Assessment -4_class_VI.xlsx
+++ b/Class_VI/Formative Assessment -4_class_VI.xlsx
@@ -89,13 +89,22 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Computer</t>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>English I</t>
+  </si>
+  <si>
+    <t>Drawing</t>
+  </si>
+  <si>
+    <t>Social Science</t>
+  </si>
+  <si>
+    <t>Assamese</t>
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Drawing</t>
   </si>
   <si>
     <t>Hindi</t>
@@ -104,19 +113,10 @@
     <t>English II</t>
   </si>
   <si>
-    <t>Science</t>
+    <t>Computer</t>
   </si>
   <si>
     <t>Maths</t>
-  </si>
-  <si>
-    <t>Assamese</t>
-  </si>
-  <si>
-    <t>Social Science</t>
-  </si>
-  <si>
-    <t>English I</t>
   </si>
   <si>
     <t>Pratik Chetry</t>
@@ -655,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -672,7 +672,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="N4" t="s">
         <v>23</v>
@@ -716,7 +716,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="N5" t="s">
         <v>23</v>
@@ -760,7 +760,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="N6" t="s">
         <v>23</v>
@@ -804,7 +804,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -831,10 +831,10 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -875,10 +875,10 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.5</v>
+        <v>17.0</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -919,10 +919,10 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.0</v>
+        <v>13.5</v>
       </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -963,10 +963,10 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.5</v>
+        <v>6.0</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1007,10 +1007,10 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.0</v>
+        <v>2.5</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1024,7 +1024,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -1051,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="M12">
-        <v>8.5</v>
+        <v>22.0</v>
       </c>
       <c r="N12" t="s">
         <v>23</v>
@@ -1068,7 +1068,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -1156,7 +1156,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -1183,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="M15">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="N15" t="s">
         <v>23</v>
@@ -1200,7 +1200,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -1227,10 +1227,10 @@
         <v>2</v>
       </c>
       <c r="M16">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="N16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1244,7 +1244,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -1271,7 +1271,7 @@
         <v>2</v>
       </c>
       <c r="M17">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="N17" t="s">
         <v>23</v>
@@ -1288,7 +1288,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -1315,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="M18">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="N18" t="s">
         <v>23</v>
@@ -1332,7 +1332,7 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="M19">
-        <v>17.0</v>
+        <v>8.5</v>
       </c>
       <c r="N19" t="s">
         <v>23</v>
@@ -1376,7 +1376,7 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -1403,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="M20">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
       <c r="N20" t="s">
         <v>23</v>
@@ -1420,7 +1420,7 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="M21">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="N21" t="s">
         <v>23</v>
@@ -1464,7 +1464,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -1491,7 +1491,7 @@
         <v>3</v>
       </c>
       <c r="M22">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="N22" t="s">
         <v>23</v>
@@ -1535,10 +1535,10 @@
         <v>3</v>
       </c>
       <c r="M23">
-        <v>0.0</v>
+        <v>22.5</v>
       </c>
       <c r="N23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1552,7 +1552,7 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -1579,7 +1579,7 @@
         <v>3</v>
       </c>
       <c r="M24">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
       <c r="N24" t="s">
         <v>23</v>
@@ -1596,7 +1596,7 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
@@ -1640,7 +1640,7 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
@@ -1667,7 +1667,7 @@
         <v>3</v>
       </c>
       <c r="M26">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
       <c r="N26" t="s">
         <v>23</v>
@@ -1684,7 +1684,7 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
         <v>18</v>
@@ -1711,7 +1711,7 @@
         <v>3</v>
       </c>
       <c r="M27">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="N27" t="s">
         <v>23</v>
@@ -1728,7 +1728,7 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
@@ -1755,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="M28">
-        <v>24.0</v>
+        <v>18.0</v>
       </c>
       <c r="N28" t="s">
         <v>23</v>
@@ -1772,7 +1772,7 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
@@ -1799,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="M29">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
       <c r="N29" t="s">
         <v>23</v>
@@ -1816,7 +1816,7 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
         <v>18</v>
@@ -1843,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="M30">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="N30" t="s">
         <v>23</v>
@@ -1860,7 +1860,7 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
@@ -1887,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="M31">
-        <v>22.5</v>
+        <v>21.0</v>
       </c>
       <c r="N31" t="s">
         <v>23</v>
@@ -1904,7 +1904,7 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
@@ -1931,10 +1931,10 @@
         <v>4</v>
       </c>
       <c r="M32">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="N32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1948,7 +1948,7 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
         <v>18</v>
@@ -1975,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="M33">
-        <v>13.0</v>
+        <v>8.5</v>
       </c>
       <c r="N33" t="s">
         <v>23</v>
@@ -1992,7 +1992,7 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
         <v>18</v>
@@ -2019,10 +2019,10 @@
         <v>4</v>
       </c>
       <c r="M34">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="N34" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2036,7 +2036,7 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
         <v>18</v>
@@ -2063,10 +2063,10 @@
         <v>4</v>
       </c>
       <c r="M35">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="N35" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2080,7 +2080,7 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
@@ -2107,10 +2107,10 @@
         <v>4</v>
       </c>
       <c r="M36">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="N36" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2124,7 +2124,7 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
@@ -2168,7 +2168,7 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
         <v>18</v>
@@ -2195,10 +2195,10 @@
         <v>4</v>
       </c>
       <c r="M38">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="N38" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2212,7 +2212,7 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E39" t="s">
         <v>18</v>
@@ -2239,10 +2239,10 @@
         <v>4</v>
       </c>
       <c r="M39">
-        <v>1.5</v>
+        <v>11.0</v>
       </c>
       <c r="N39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2256,7 +2256,7 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s">
         <v>18</v>
@@ -2286,7 +2286,7 @@
         <v>1.5</v>
       </c>
       <c r="N40" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2300,7 +2300,7 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
         <v>18</v>
@@ -2327,10 +2327,10 @@
         <v>4</v>
       </c>
       <c r="M41">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="N41" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2344,7 +2344,7 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s">
         <v>18</v>
@@ -2371,7 +2371,7 @@
         <v>5</v>
       </c>
       <c r="M42">
-        <v>14.0</v>
+        <v>18.5</v>
       </c>
       <c r="N42" t="s">
         <v>23</v>
@@ -2388,7 +2388,7 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
@@ -2415,7 +2415,7 @@
         <v>5</v>
       </c>
       <c r="M43">
-        <v>18.5</v>
+        <v>21.5</v>
       </c>
       <c r="N43" t="s">
         <v>23</v>
@@ -2432,7 +2432,7 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E44" t="s">
         <v>18</v>
@@ -2459,7 +2459,7 @@
         <v>5</v>
       </c>
       <c r="M44">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="N44" t="s">
         <v>23</v>
@@ -2476,7 +2476,7 @@
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
@@ -2503,7 +2503,7 @@
         <v>5</v>
       </c>
       <c r="M45">
-        <v>21.5</v>
+        <v>21.0</v>
       </c>
       <c r="N45" t="s">
         <v>23</v>
@@ -2520,7 +2520,7 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E46" t="s">
         <v>18</v>
@@ -2547,7 +2547,7 @@
         <v>5</v>
       </c>
       <c r="M46">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="N46" t="s">
         <v>23</v>
@@ -2564,7 +2564,7 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E47" t="s">
         <v>18</v>
@@ -2591,10 +2591,10 @@
         <v>5</v>
       </c>
       <c r="M47">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="N47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2608,7 +2608,7 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E48" t="s">
         <v>18</v>
@@ -2635,7 +2635,7 @@
         <v>5</v>
       </c>
       <c r="M48">
-        <v>19.0</v>
+        <v>16.5</v>
       </c>
       <c r="N48" t="s">
         <v>23</v>
@@ -2652,7 +2652,7 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
@@ -2679,7 +2679,7 @@
         <v>5</v>
       </c>
       <c r="M49">
-        <v>22.5</v>
+        <v>19.0</v>
       </c>
       <c r="N49" t="s">
         <v>23</v>
@@ -2696,7 +2696,7 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
         <v>18</v>
@@ -2723,7 +2723,7 @@
         <v>5</v>
       </c>
       <c r="M50">
-        <v>11.0</v>
+        <v>22.5</v>
       </c>
       <c r="N50" t="s">
         <v>23</v>
@@ -2740,7 +2740,7 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E51" t="s">
         <v>18</v>
@@ -2784,7 +2784,7 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E52" t="s">
         <v>18</v>
@@ -2828,7 +2828,7 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E53" t="s">
         <v>18</v>
@@ -2916,7 +2916,7 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E55" t="s">
         <v>18</v>
@@ -2960,7 +2960,7 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E56" t="s">
         <v>18</v>
@@ -3004,7 +3004,7 @@
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
         <v>18</v>
@@ -3092,7 +3092,7 @@
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E59" t="s">
         <v>18</v>
@@ -3136,7 +3136,7 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E60" t="s">
         <v>18</v>
@@ -3163,10 +3163,10 @@
         <v>6</v>
       </c>
       <c r="M60">
-        <v>0.0</v>
+        <v>3.5</v>
       </c>
       <c r="N60" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3180,7 +3180,7 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E61" t="s">
         <v>18</v>
@@ -3210,7 +3210,7 @@
         <v>4.0</v>
       </c>
       <c r="N61" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3224,7 +3224,7 @@
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E62" t="s">
         <v>18</v>
@@ -3251,7 +3251,7 @@
         <v>7</v>
       </c>
       <c r="M62">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="N62" t="s">
         <v>23</v>
@@ -3295,7 +3295,7 @@
         <v>7</v>
       </c>
       <c r="M63">
-        <v>7.5</v>
+        <v>14.0</v>
       </c>
       <c r="N63" t="s">
         <v>23</v>
@@ -3312,7 +3312,7 @@
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E64" t="s">
         <v>18</v>
@@ -3342,7 +3342,7 @@
         <v>5.5</v>
       </c>
       <c r="N64" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3383,7 +3383,7 @@
         <v>7</v>
       </c>
       <c r="M65">
-        <v>14.0</v>
+        <v>7.5</v>
       </c>
       <c r="N65" t="s">
         <v>23</v>
@@ -3400,7 +3400,7 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E66" t="s">
         <v>18</v>
@@ -3427,7 +3427,7 @@
         <v>7</v>
       </c>
       <c r="M66">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="N66" t="s">
         <v>23</v>
@@ -3444,7 +3444,7 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E67" t="s">
         <v>18</v>
@@ -3471,10 +3471,10 @@
         <v>7</v>
       </c>
       <c r="M67">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="N67" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3488,7 +3488,7 @@
         <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E68" t="s">
         <v>18</v>
@@ -3532,7 +3532,7 @@
         <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E69" t="s">
         <v>18</v>
@@ -3559,7 +3559,7 @@
         <v>7</v>
       </c>
       <c r="M69">
-        <v>10.5</v>
+        <v>7.0</v>
       </c>
       <c r="N69" t="s">
         <v>23</v>
@@ -3576,7 +3576,7 @@
         <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E70" t="s">
         <v>18</v>
@@ -3603,7 +3603,7 @@
         <v>7</v>
       </c>
       <c r="M70">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="N70" t="s">
         <v>23</v>
@@ -3620,7 +3620,7 @@
         <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E71" t="s">
         <v>18</v>
@@ -3647,7 +3647,7 @@
         <v>7</v>
       </c>
       <c r="M71">
-        <v>11.0</v>
+        <v>7.5</v>
       </c>
       <c r="N71" t="s">
         <v>23</v>
@@ -3664,7 +3664,7 @@
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E72" t="s">
         <v>18</v>
@@ -3691,7 +3691,7 @@
         <v>8</v>
       </c>
       <c r="M72">
-        <v>9.0</v>
+        <v>14.5</v>
       </c>
       <c r="N72" t="s">
         <v>23</v>
@@ -3708,7 +3708,7 @@
         <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E73" t="s">
         <v>18</v>
@@ -3735,10 +3735,10 @@
         <v>8</v>
       </c>
       <c r="M73">
-        <v>0.0</v>
+        <v>10.5</v>
       </c>
       <c r="N73" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3752,7 +3752,7 @@
         <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E74" t="s">
         <v>18</v>
@@ -3779,7 +3779,7 @@
         <v>8</v>
       </c>
       <c r="M74">
-        <v>10.5</v>
+        <v>9.0</v>
       </c>
       <c r="N74" t="s">
         <v>23</v>
@@ -3796,7 +3796,7 @@
         <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E75" t="s">
         <v>18</v>
@@ -3823,10 +3823,10 @@
         <v>8</v>
       </c>
       <c r="M75">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="N75" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3884,7 +3884,7 @@
         <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E77" t="s">
         <v>18</v>
@@ -3911,7 +3911,7 @@
         <v>8</v>
       </c>
       <c r="M77">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="N77" t="s">
         <v>23</v>
@@ -3928,7 +3928,7 @@
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E78" t="s">
         <v>18</v>
@@ -3955,10 +3955,10 @@
         <v>8</v>
       </c>
       <c r="M78">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="N78" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3972,7 +3972,7 @@
         <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E79" t="s">
         <v>18</v>
@@ -3999,7 +3999,7 @@
         <v>8</v>
       </c>
       <c r="M79">
-        <v>14.5</v>
+        <v>11.0</v>
       </c>
       <c r="N79" t="s">
         <v>23</v>
@@ -4016,7 +4016,7 @@
         <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E80" t="s">
         <v>18</v>
@@ -4060,7 +4060,7 @@
         <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E81" t="s">
         <v>18</v>
@@ -4087,10 +4087,10 @@
         <v>8</v>
       </c>
       <c r="M81">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="N81" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4104,7 +4104,7 @@
         <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E82" t="s">
         <v>18</v>
@@ -4131,7 +4131,7 @@
         <v>9</v>
       </c>
       <c r="M82">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="N82" t="s">
         <v>23</v>
@@ -4148,7 +4148,7 @@
         <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E83" t="s">
         <v>18</v>
@@ -4175,7 +4175,7 @@
         <v>9</v>
       </c>
       <c r="M83">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="N83" t="s">
         <v>23</v>
@@ -4192,7 +4192,7 @@
         <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E84" t="s">
         <v>18</v>
@@ -4219,7 +4219,7 @@
         <v>9</v>
       </c>
       <c r="M84">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="N84" t="s">
         <v>23</v>
@@ -4236,7 +4236,7 @@
         <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E85" t="s">
         <v>18</v>
@@ -4280,7 +4280,7 @@
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E86" t="s">
         <v>18</v>
@@ -4307,7 +4307,7 @@
         <v>9</v>
       </c>
       <c r="M86">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
       <c r="N86" t="s">
         <v>23</v>
@@ -4324,7 +4324,7 @@
         <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E87" t="s">
         <v>18</v>
@@ -4368,7 +4368,7 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E88" t="s">
         <v>18</v>
@@ -4412,7 +4412,7 @@
         <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E89" t="s">
         <v>18</v>
@@ -4439,10 +4439,10 @@
         <v>9</v>
       </c>
       <c r="M89">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="N89" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4456,7 +4456,7 @@
         <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E90" t="s">
         <v>18</v>
@@ -4483,7 +4483,7 @@
         <v>9</v>
       </c>
       <c r="M90">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="N90" t="s">
         <v>23</v>
@@ -4500,7 +4500,7 @@
         <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E91" t="s">
         <v>18</v>
@@ -4527,10 +4527,10 @@
         <v>9</v>
       </c>
       <c r="M91">
-        <v>11.0</v>
+        <v>3.5</v>
       </c>
       <c r="N91" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4544,7 +4544,7 @@
         <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E92" t="s">
         <v>18</v>
@@ -4571,10 +4571,10 @@
         <v>10</v>
       </c>
       <c r="M92">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N92" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4615,10 +4615,10 @@
         <v>10</v>
       </c>
       <c r="M93">
-        <v>4.5</v>
+        <v>9.0</v>
       </c>
       <c r="N93" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4632,7 +4632,7 @@
         <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E94" t="s">
         <v>18</v>
@@ -4659,10 +4659,10 @@
         <v>10</v>
       </c>
       <c r="M94">
-        <v>7.0</v>
+        <v>2.5</v>
       </c>
       <c r="N94" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4676,7 +4676,7 @@
         <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E95" t="s">
         <v>18</v>
@@ -4703,10 +4703,10 @@
         <v>10</v>
       </c>
       <c r="M95">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="N95" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4720,7 +4720,7 @@
         <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E96" t="s">
         <v>18</v>
@@ -4747,7 +4747,7 @@
         <v>10</v>
       </c>
       <c r="M96">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="N96" t="s">
         <v>23</v>
@@ -4764,7 +4764,7 @@
         <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E97" t="s">
         <v>18</v>
@@ -4791,7 +4791,7 @@
         <v>10</v>
       </c>
       <c r="M97">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="N97" t="s">
         <v>23</v>
@@ -4808,7 +4808,7 @@
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E98" t="s">
         <v>18</v>
@@ -4835,10 +4835,10 @@
         <v>10</v>
       </c>
       <c r="M98">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="N98" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4879,10 +4879,10 @@
         <v>10</v>
       </c>
       <c r="M99">
-        <v>9.0</v>
+        <v>4.5</v>
       </c>
       <c r="N99" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4896,7 +4896,7 @@
         <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E100" t="s">
         <v>18</v>
@@ -4923,10 +4923,10 @@
         <v>10</v>
       </c>
       <c r="M100">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="N100" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4940,7 +4940,7 @@
         <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E101" t="s">
         <v>18</v>
@@ -4967,10 +4967,10 @@
         <v>10</v>
       </c>
       <c r="M101">
-        <v>7.5</v>
+        <v>5.0</v>
       </c>
       <c r="N101" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4984,7 +4984,7 @@
         <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E102" t="s">
         <v>18</v>
@@ -5011,7 +5011,7 @@
         <v>11</v>
       </c>
       <c r="M102">
-        <v>14.5</v>
+        <v>7.5</v>
       </c>
       <c r="N102" t="s">
         <v>23</v>
@@ -5028,7 +5028,7 @@
         <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E103" t="s">
         <v>18</v>
@@ -5055,7 +5055,7 @@
         <v>11</v>
       </c>
       <c r="M103">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="N103" t="s">
         <v>23</v>
@@ -5072,7 +5072,7 @@
         <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E104" t="s">
         <v>18</v>
@@ -5099,7 +5099,7 @@
         <v>11</v>
       </c>
       <c r="M104">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="N104" t="s">
         <v>23</v>
@@ -5143,10 +5143,10 @@
         <v>11</v>
       </c>
       <c r="M105">
-        <v>0.0</v>
+        <v>10.5</v>
       </c>
       <c r="N105" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5160,7 +5160,7 @@
         <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E106" t="s">
         <v>18</v>
@@ -5187,7 +5187,7 @@
         <v>11</v>
       </c>
       <c r="M106">
-        <v>10.5</v>
+        <v>11.0</v>
       </c>
       <c r="N106" t="s">
         <v>23</v>
@@ -5204,7 +5204,7 @@
         <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E107" t="s">
         <v>18</v>
@@ -5248,7 +5248,7 @@
         <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E108" t="s">
         <v>18</v>
@@ -5275,10 +5275,10 @@
         <v>11</v>
       </c>
       <c r="M108">
-        <v>13.0</v>
+        <v>2.5</v>
       </c>
       <c r="N108" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5292,7 +5292,7 @@
         <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E109" t="s">
         <v>18</v>
@@ -5319,7 +5319,7 @@
         <v>11</v>
       </c>
       <c r="M109">
-        <v>7.5</v>
+        <v>13.0</v>
       </c>
       <c r="N109" t="s">
         <v>23</v>
@@ -5336,7 +5336,7 @@
         <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E110" t="s">
         <v>18</v>
@@ -5363,7 +5363,7 @@
         <v>11</v>
       </c>
       <c r="M110">
-        <v>11.0</v>
+        <v>14.5</v>
       </c>
       <c r="N110" t="s">
         <v>23</v>
@@ -5380,7 +5380,7 @@
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E111" t="s">
         <v>18</v>
@@ -5424,7 +5424,7 @@
         <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E112" t="s">
         <v>18</v>
@@ -5451,10 +5451,10 @@
         <v>12</v>
       </c>
       <c r="M112">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="N112" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5468,7 +5468,7 @@
         <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E113" t="s">
         <v>18</v>
@@ -5495,10 +5495,10 @@
         <v>12</v>
       </c>
       <c r="M113">
-        <v>1.5</v>
+        <v>4.0</v>
       </c>
       <c r="N113" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5512,7 +5512,7 @@
         <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E114" t="s">
         <v>18</v>
@@ -5539,10 +5539,10 @@
         <v>12</v>
       </c>
       <c r="M114">
-        <v>1.0</v>
+        <v>3.5</v>
       </c>
       <c r="N114" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5556,7 +5556,7 @@
         <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E115" t="s">
         <v>18</v>
@@ -5583,10 +5583,10 @@
         <v>12</v>
       </c>
       <c r="M115">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="N115" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5600,7 +5600,7 @@
         <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E116" t="s">
         <v>18</v>
@@ -5627,10 +5627,10 @@
         <v>12</v>
       </c>
       <c r="M116">
-        <v>5.5</v>
+        <v>3.0</v>
       </c>
       <c r="N116" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5671,10 +5671,10 @@
         <v>12</v>
       </c>
       <c r="M117">
-        <v>5.0</v>
+        <v>3.5</v>
       </c>
       <c r="N117" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5715,10 +5715,10 @@
         <v>12</v>
       </c>
       <c r="M118">
-        <v>3.5</v>
+        <v>3.0</v>
       </c>
       <c r="N118" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5732,7 +5732,7 @@
         <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E119" t="s">
         <v>18</v>
@@ -5759,10 +5759,10 @@
         <v>12</v>
       </c>
       <c r="M119">
-        <v>4.0</v>
+        <v>5.5</v>
       </c>
       <c r="N119" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -5776,7 +5776,7 @@
         <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E120" t="s">
         <v>18</v>
@@ -5803,10 +5803,10 @@
         <v>12</v>
       </c>
       <c r="M120">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="N120" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -5864,7 +5864,7 @@
         <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E122" t="s">
         <v>18</v>
@@ -5891,10 +5891,10 @@
         <v>13</v>
       </c>
       <c r="M122">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="N122" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -5908,7 +5908,7 @@
         <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E123" t="s">
         <v>18</v>
@@ -5935,10 +5935,10 @@
         <v>13</v>
       </c>
       <c r="M123">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N123" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -5952,7 +5952,7 @@
         <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E124" t="s">
         <v>18</v>
@@ -5979,10 +5979,10 @@
         <v>13</v>
       </c>
       <c r="M124">
-        <v>1.5</v>
+        <v>6.0</v>
       </c>
       <c r="N124" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -5996,7 +5996,7 @@
         <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E125" t="s">
         <v>18</v>
@@ -6026,7 +6026,7 @@
         <v>2.0</v>
       </c>
       <c r="N125" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -6067,10 +6067,10 @@
         <v>13</v>
       </c>
       <c r="M126">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="N126" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6084,7 +6084,7 @@
         <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E127" t="s">
         <v>18</v>
@@ -6111,10 +6111,10 @@
         <v>13</v>
       </c>
       <c r="M127">
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="N127" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6128,7 +6128,7 @@
         <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E128" t="s">
         <v>18</v>
@@ -6155,10 +6155,10 @@
         <v>13</v>
       </c>
       <c r="M128">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="N128" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6172,7 +6172,7 @@
         <v>16</v>
       </c>
       <c r="D129" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E129" t="s">
         <v>18</v>
@@ -6199,10 +6199,10 @@
         <v>13</v>
       </c>
       <c r="M129">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="N129" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6216,7 +6216,7 @@
         <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E130" t="s">
         <v>18</v>
@@ -6246,7 +6246,7 @@
         <v>1.0</v>
       </c>
       <c r="N130" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -6260,7 +6260,7 @@
         <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E131" t="s">
         <v>18</v>
@@ -6290,7 +6290,7 @@
         <v>1.0</v>
       </c>
       <c r="N131" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -6304,7 +6304,7 @@
         <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E132" t="s">
         <v>18</v>
@@ -6331,10 +6331,10 @@
         <v>14</v>
       </c>
       <c r="M132">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="N132" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -6348,7 +6348,7 @@
         <v>16</v>
       </c>
       <c r="D133" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E133" t="s">
         <v>18</v>
@@ -6378,7 +6378,7 @@
         <v>1.0</v>
       </c>
       <c r="N133" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -6392,7 +6392,7 @@
         <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E134" t="s">
         <v>18</v>
@@ -6419,10 +6419,10 @@
         <v>14</v>
       </c>
       <c r="M134">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N134" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -6436,7 +6436,7 @@
         <v>16</v>
       </c>
       <c r="D135" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E135" t="s">
         <v>18</v>
@@ -6463,10 +6463,10 @@
         <v>14</v>
       </c>
       <c r="M135">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="N135" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6480,7 +6480,7 @@
         <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E136" t="s">
         <v>18</v>
@@ -6510,7 +6510,7 @@
         <v>0.0</v>
       </c>
       <c r="N136" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -6524,7 +6524,7 @@
         <v>16</v>
       </c>
       <c r="D137" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E137" t="s">
         <v>18</v>
@@ -6554,7 +6554,7 @@
         <v>0.0</v>
       </c>
       <c r="N137" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -6568,7 +6568,7 @@
         <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E138" t="s">
         <v>18</v>
@@ -6598,7 +6598,7 @@
         <v>1.0</v>
       </c>
       <c r="N138" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -6612,7 +6612,7 @@
         <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E139" t="s">
         <v>18</v>
@@ -6639,10 +6639,10 @@
         <v>14</v>
       </c>
       <c r="M139">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="N139" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -6656,7 +6656,7 @@
         <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E140" t="s">
         <v>18</v>
@@ -6686,7 +6686,7 @@
         <v>0.0</v>
       </c>
       <c r="N140" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -6727,10 +6727,10 @@
         <v>14</v>
       </c>
       <c r="M141">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N141" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -6744,7 +6744,7 @@
         <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E142" t="s">
         <v>18</v>
@@ -6771,7 +6771,7 @@
         <v>15</v>
       </c>
       <c r="M142">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="N142" t="s">
         <v>23</v>
@@ -6788,7 +6788,7 @@
         <v>16</v>
       </c>
       <c r="D143" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E143" t="s">
         <v>18</v>
@@ -6815,7 +6815,7 @@
         <v>15</v>
       </c>
       <c r="M143">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="N143" t="s">
         <v>23</v>
@@ -6832,7 +6832,7 @@
         <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E144" t="s">
         <v>18</v>
@@ -6859,10 +6859,10 @@
         <v>15</v>
       </c>
       <c r="M144">
-        <v>9.0</v>
+        <v>6.5</v>
       </c>
       <c r="N144" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -6876,7 +6876,7 @@
         <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E145" t="s">
         <v>18</v>
@@ -6903,10 +6903,10 @@
         <v>15</v>
       </c>
       <c r="M145">
-        <v>6.5</v>
+        <v>12.0</v>
       </c>
       <c r="N145" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -6920,7 +6920,7 @@
         <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E146" t="s">
         <v>18</v>
@@ -6950,7 +6950,7 @@
         <v>4.0</v>
       </c>
       <c r="N146" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -6964,7 +6964,7 @@
         <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E147" t="s">
         <v>18</v>
@@ -6991,10 +6991,10 @@
         <v>15</v>
       </c>
       <c r="M147">
-        <v>0.0</v>
+        <v>4.5</v>
       </c>
       <c r="N147" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -7008,7 +7008,7 @@
         <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E148" t="s">
         <v>18</v>
@@ -7052,7 +7052,7 @@
         <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E149" t="s">
         <v>18</v>
@@ -7079,10 +7079,10 @@
         <v>15</v>
       </c>
       <c r="M149">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="N149" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -7096,7 +7096,7 @@
         <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E150" t="s">
         <v>18</v>
@@ -7123,10 +7123,10 @@
         <v>15</v>
       </c>
       <c r="M150">
-        <v>1.0</v>
+        <v>10.5</v>
       </c>
       <c r="N150" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -7140,7 +7140,7 @@
         <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E151" t="s">
         <v>18</v>
@@ -7167,7 +7167,7 @@
         <v>15</v>
       </c>
       <c r="M151">
-        <v>10.5</v>
+        <v>9.0</v>
       </c>
       <c r="N151" t="s">
         <v>23</v>
@@ -7211,10 +7211,10 @@
         <v>16</v>
       </c>
       <c r="M152">
-        <v>6.5</v>
+        <v>3.0</v>
       </c>
       <c r="N152" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -7228,7 +7228,7 @@
         <v>16</v>
       </c>
       <c r="D153" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E153" t="s">
         <v>18</v>
@@ -7272,7 +7272,7 @@
         <v>16</v>
       </c>
       <c r="D154" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E154" t="s">
         <v>18</v>
@@ -7299,10 +7299,10 @@
         <v>16</v>
       </c>
       <c r="M154">
-        <v>16.0</v>
+        <v>6.5</v>
       </c>
       <c r="N154" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -7316,7 +7316,7 @@
         <v>16</v>
       </c>
       <c r="D155" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E155" t="s">
         <v>18</v>
@@ -7343,10 +7343,10 @@
         <v>16</v>
       </c>
       <c r="M155">
-        <v>7.0</v>
+        <v>3.5</v>
       </c>
       <c r="N155" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -7360,7 +7360,7 @@
         <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E156" t="s">
         <v>18</v>
@@ -7387,10 +7387,10 @@
         <v>16</v>
       </c>
       <c r="M156">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="N156" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -7404,7 +7404,7 @@
         <v>16</v>
       </c>
       <c r="D157" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E157" t="s">
         <v>18</v>
@@ -7431,10 +7431,10 @@
         <v>16</v>
       </c>
       <c r="M157">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="N157" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -7448,7 +7448,7 @@
         <v>16</v>
       </c>
       <c r="D158" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E158" t="s">
         <v>18</v>
@@ -7475,10 +7475,10 @@
         <v>16</v>
       </c>
       <c r="M158">
-        <v>3.5</v>
+        <v>0.0</v>
       </c>
       <c r="N158" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -7492,7 +7492,7 @@
         <v>16</v>
       </c>
       <c r="D159" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E159" t="s">
         <v>18</v>
@@ -7536,7 +7536,7 @@
         <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E160" t="s">
         <v>18</v>
@@ -7566,7 +7566,7 @@
         <v>4.0</v>
       </c>
       <c r="N160" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -7580,7 +7580,7 @@
         <v>16</v>
       </c>
       <c r="D161" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E161" t="s">
         <v>18</v>
@@ -7668,7 +7668,7 @@
         <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E163" t="s">
         <v>18</v>
@@ -7695,10 +7695,10 @@
         <v>17</v>
       </c>
       <c r="M163">
-        <v>0.0</v>
+        <v>21.5</v>
       </c>
       <c r="N163" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -7739,7 +7739,7 @@
         <v>17</v>
       </c>
       <c r="M164">
-        <v>21.5</v>
+        <v>20.0</v>
       </c>
       <c r="N164" t="s">
         <v>23</v>
@@ -7756,7 +7756,7 @@
         <v>16</v>
       </c>
       <c r="D165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E165" t="s">
         <v>18</v>
@@ -7783,7 +7783,7 @@
         <v>17</v>
       </c>
       <c r="M165">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="N165" t="s">
         <v>23</v>
@@ -7800,7 +7800,7 @@
         <v>16</v>
       </c>
       <c r="D166" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E166" t="s">
         <v>18</v>
@@ -7827,7 +7827,7 @@
         <v>17</v>
       </c>
       <c r="M166">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="N166" t="s">
         <v>23</v>
@@ -7844,7 +7844,7 @@
         <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E167" t="s">
         <v>18</v>
@@ -7888,7 +7888,7 @@
         <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E168" t="s">
         <v>18</v>
@@ -7915,7 +7915,7 @@
         <v>17</v>
       </c>
       <c r="M168">
-        <v>21.0</v>
+        <v>23.5</v>
       </c>
       <c r="N168" t="s">
         <v>23</v>
@@ -7932,7 +7932,7 @@
         <v>16</v>
       </c>
       <c r="D169" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E169" t="s">
         <v>18</v>
@@ -7976,7 +7976,7 @@
         <v>16</v>
       </c>
       <c r="D170" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E170" t="s">
         <v>18</v>
@@ -8003,7 +8003,7 @@
         <v>17</v>
       </c>
       <c r="M170">
-        <v>23.5</v>
+        <v>21.0</v>
       </c>
       <c r="N170" t="s">
         <v>23</v>
@@ -8020,7 +8020,7 @@
         <v>16</v>
       </c>
       <c r="D171" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E171" t="s">
         <v>18</v>
@@ -8064,7 +8064,7 @@
         <v>16</v>
       </c>
       <c r="D172" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E172" t="s">
         <v>18</v>
@@ -8094,7 +8094,7 @@
         <v>0.0</v>
       </c>
       <c r="N172" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -8152,7 +8152,7 @@
         <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E174" t="s">
         <v>18</v>
@@ -8196,7 +8196,7 @@
         <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E175" t="s">
         <v>18</v>
@@ -8284,7 +8284,7 @@
         <v>16</v>
       </c>
       <c r="D177" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E177" t="s">
         <v>18</v>
@@ -8314,7 +8314,7 @@
         <v>5.5</v>
       </c>
       <c r="N177" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -8328,7 +8328,7 @@
         <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E178" t="s">
         <v>18</v>
@@ -8358,7 +8358,7 @@
         <v>2.0</v>
       </c>
       <c r="N178" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -8372,7 +8372,7 @@
         <v>16</v>
       </c>
       <c r="D179" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E179" t="s">
         <v>18</v>
@@ -8402,7 +8402,7 @@
         <v>5.0</v>
       </c>
       <c r="N179" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -8416,7 +8416,7 @@
         <v>16</v>
       </c>
       <c r="D180" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E180" t="s">
         <v>18</v>
@@ -8446,7 +8446,7 @@
         <v>1.0</v>
       </c>
       <c r="N180" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -8460,7 +8460,7 @@
         <v>16</v>
       </c>
       <c r="D181" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E181" t="s">
         <v>18</v>
@@ -8487,10 +8487,10 @@
         <v>18</v>
       </c>
       <c r="M181">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="N181" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -8548,7 +8548,7 @@
         <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E183" t="s">
         <v>18</v>
@@ -8578,7 +8578,7 @@
         <v>6.5</v>
       </c>
       <c r="N183" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -8592,7 +8592,7 @@
         <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E184" t="s">
         <v>18</v>
@@ -8663,10 +8663,10 @@
         <v>19</v>
       </c>
       <c r="M185">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="N185" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -8680,7 +8680,7 @@
         <v>16</v>
       </c>
       <c r="D186" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E186" t="s">
         <v>18</v>
@@ -8707,10 +8707,10 @@
         <v>19</v>
       </c>
       <c r="M186">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="N186" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -8795,10 +8795,10 @@
         <v>19</v>
       </c>
       <c r="M188">
-        <v>9.5</v>
+        <v>2.0</v>
       </c>
       <c r="N188" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -8812,7 +8812,7 @@
         <v>16</v>
       </c>
       <c r="D189" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E189" t="s">
         <v>18</v>
@@ -8856,7 +8856,7 @@
         <v>16</v>
       </c>
       <c r="D190" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E190" t="s">
         <v>18</v>
@@ -8883,10 +8883,10 @@
         <v>19</v>
       </c>
       <c r="M190">
-        <v>0.0</v>
+        <v>9.5</v>
       </c>
       <c r="N190" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -8900,7 +8900,7 @@
         <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E191" t="s">
         <v>18</v>
@@ -8944,7 +8944,7 @@
         <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E192" t="s">
         <v>18</v>
@@ -8971,10 +8971,10 @@
         <v>20</v>
       </c>
       <c r="M192">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="N192" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -9015,10 +9015,10 @@
         <v>20</v>
       </c>
       <c r="M193">
-        <v>0.5</v>
+        <v>2.0</v>
       </c>
       <c r="N193" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -9032,7 +9032,7 @@
         <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E194" t="s">
         <v>18</v>
@@ -9059,10 +9059,10 @@
         <v>20</v>
       </c>
       <c r="M194">
-        <v>2.0</v>
+        <v>6.5</v>
       </c>
       <c r="N194" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -9103,10 +9103,10 @@
         <v>20</v>
       </c>
       <c r="M195">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="N195" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -9120,7 +9120,7 @@
         <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E196" t="s">
         <v>18</v>
@@ -9150,7 +9150,7 @@
         <v>4.5</v>
       </c>
       <c r="N196" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -9164,7 +9164,7 @@
         <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E197" t="s">
         <v>18</v>
@@ -9191,10 +9191,10 @@
         <v>20</v>
       </c>
       <c r="M197">
-        <v>6.5</v>
+        <v>5.0</v>
       </c>
       <c r="N197" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -9208,7 +9208,7 @@
         <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E198" t="s">
         <v>18</v>
@@ -9235,10 +9235,10 @@
         <v>20</v>
       </c>
       <c r="M198">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="N198" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -9252,7 +9252,7 @@
         <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E199" t="s">
         <v>18</v>
@@ -9279,10 +9279,10 @@
         <v>20</v>
       </c>
       <c r="M199">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N199" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -9296,7 +9296,7 @@
         <v>16</v>
       </c>
       <c r="D200" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E200" t="s">
         <v>18</v>
@@ -9326,7 +9326,7 @@
         <v>0.0</v>
       </c>
       <c r="N200" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -9340,7 +9340,7 @@
         <v>16</v>
       </c>
       <c r="D201" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E201" t="s">
         <v>18</v>
@@ -9367,10 +9367,10 @@
         <v>20</v>
       </c>
       <c r="M201">
-        <v>15.0</v>
+        <v>0.5</v>
       </c>
       <c r="N201" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -9414,7 +9414,7 @@
         <v>3.0</v>
       </c>
       <c r="N202" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -9428,7 +9428,7 @@
         <v>16</v>
       </c>
       <c r="D203" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E203" t="s">
         <v>18</v>
@@ -9458,7 +9458,7 @@
         <v>0.0</v>
       </c>
       <c r="N203" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -9472,7 +9472,7 @@
         <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E204" t="s">
         <v>18</v>
@@ -9502,7 +9502,7 @@
         <v>1.0</v>
       </c>
       <c r="N204" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -9516,7 +9516,7 @@
         <v>16</v>
       </c>
       <c r="D205" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E205" t="s">
         <v>18</v>
@@ -9546,7 +9546,7 @@
         <v>0.0</v>
       </c>
       <c r="N205" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -9587,10 +9587,10 @@
         <v>21</v>
       </c>
       <c r="M206">
-        <v>0.0</v>
+        <v>2.5</v>
       </c>
       <c r="N206" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -9604,7 +9604,7 @@
         <v>16</v>
       </c>
       <c r="D207" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E207" t="s">
         <v>18</v>
@@ -9634,7 +9634,7 @@
         <v>1.5</v>
       </c>
       <c r="N207" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -9692,7 +9692,7 @@
         <v>16</v>
       </c>
       <c r="D209" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E209" t="s">
         <v>18</v>
@@ -9719,10 +9719,10 @@
         <v>21</v>
       </c>
       <c r="M209">
-        <v>7.5</v>
+        <v>1.0</v>
       </c>
       <c r="N209" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -9736,7 +9736,7 @@
         <v>16</v>
       </c>
       <c r="D210" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E210" t="s">
         <v>18</v>
@@ -9763,10 +9763,10 @@
         <v>21</v>
       </c>
       <c r="M210">
-        <v>1.0</v>
+        <v>7.5</v>
       </c>
       <c r="N210" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -9780,7 +9780,7 @@
         <v>16</v>
       </c>
       <c r="D211" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E211" t="s">
         <v>18</v>
@@ -9810,7 +9810,7 @@
         <v>4.0</v>
       </c>
       <c r="N211" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -9824,7 +9824,7 @@
         <v>16</v>
       </c>
       <c r="D212" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E212" t="s">
         <v>18</v>
@@ -9851,7 +9851,7 @@
         <v>22</v>
       </c>
       <c r="M212">
-        <v>10.5</v>
+        <v>20.0</v>
       </c>
       <c r="N212" t="s">
         <v>23</v>
@@ -9868,7 +9868,7 @@
         <v>16</v>
       </c>
       <c r="D213" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E213" t="s">
         <v>18</v>
@@ -9895,7 +9895,7 @@
         <v>22</v>
       </c>
       <c r="M213">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="N213" t="s">
         <v>23</v>
@@ -9912,7 +9912,7 @@
         <v>16</v>
       </c>
       <c r="D214" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E214" t="s">
         <v>18</v>
@@ -9939,10 +9939,10 @@
         <v>22</v>
       </c>
       <c r="M214">
-        <v>20.0</v>
+        <v>4.5</v>
       </c>
       <c r="N214" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -9956,7 +9956,7 @@
         <v>16</v>
       </c>
       <c r="D215" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E215" t="s">
         <v>18</v>
@@ -9983,7 +9983,7 @@
         <v>22</v>
       </c>
       <c r="M215">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="N215" t="s">
         <v>23</v>
@@ -10000,7 +10000,7 @@
         <v>16</v>
       </c>
       <c r="D216" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E216" t="s">
         <v>18</v>
@@ -10027,7 +10027,7 @@
         <v>22</v>
       </c>
       <c r="M216">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="N216" t="s">
         <v>23</v>
@@ -10044,7 +10044,7 @@
         <v>16</v>
       </c>
       <c r="D217" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E217" t="s">
         <v>18</v>
@@ -10071,7 +10071,7 @@
         <v>22</v>
       </c>
       <c r="M217">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="N217" t="s">
         <v>23</v>
@@ -10088,7 +10088,7 @@
         <v>16</v>
       </c>
       <c r="D218" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E218" t="s">
         <v>18</v>
@@ -10115,7 +10115,7 @@
         <v>22</v>
       </c>
       <c r="M218">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="N218" t="s">
         <v>23</v>
@@ -10132,7 +10132,7 @@
         <v>16</v>
       </c>
       <c r="D219" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E219" t="s">
         <v>18</v>
@@ -10159,7 +10159,7 @@
         <v>22</v>
       </c>
       <c r="M219">
-        <v>17.0</v>
+        <v>11.5</v>
       </c>
       <c r="N219" t="s">
         <v>23</v>
@@ -10176,7 +10176,7 @@
         <v>16</v>
       </c>
       <c r="D220" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E220" t="s">
         <v>18</v>
@@ -10203,10 +10203,10 @@
         <v>22</v>
       </c>
       <c r="M220">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="N220" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -10220,7 +10220,7 @@
         <v>16</v>
       </c>
       <c r="D221" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E221" t="s">
         <v>18</v>
@@ -10247,7 +10247,7 @@
         <v>22</v>
       </c>
       <c r="M221">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="N221" t="s">
         <v>23</v>
@@ -10264,7 +10264,7 @@
         <v>16</v>
       </c>
       <c r="D222" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E222" t="s">
         <v>18</v>
@@ -10291,7 +10291,7 @@
         <v>23</v>
       </c>
       <c r="M222">
-        <v>17.5</v>
+        <v>15.0</v>
       </c>
       <c r="N222" t="s">
         <v>23</v>
@@ -10308,7 +10308,7 @@
         <v>16</v>
       </c>
       <c r="D223" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E223" t="s">
         <v>18</v>
@@ -10335,10 +10335,10 @@
         <v>23</v>
       </c>
       <c r="M223">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="N223" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -10352,7 +10352,7 @@
         <v>16</v>
       </c>
       <c r="D224" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E224" t="s">
         <v>18</v>
@@ -10379,7 +10379,7 @@
         <v>23</v>
       </c>
       <c r="M224">
-        <v>7.5</v>
+        <v>7.0</v>
       </c>
       <c r="N224" t="s">
         <v>23</v>
@@ -10396,7 +10396,7 @@
         <v>16</v>
       </c>
       <c r="D225" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E225" t="s">
         <v>18</v>
@@ -10423,7 +10423,7 @@
         <v>23</v>
       </c>
       <c r="M225">
-        <v>8.0</v>
+        <v>7.5</v>
       </c>
       <c r="N225" t="s">
         <v>23</v>
@@ -10440,7 +10440,7 @@
         <v>16</v>
       </c>
       <c r="D226" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E226" t="s">
         <v>18</v>
@@ -10467,10 +10467,10 @@
         <v>23</v>
       </c>
       <c r="M226">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="N226" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -10484,7 +10484,7 @@
         <v>16</v>
       </c>
       <c r="D227" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E227" t="s">
         <v>18</v>
@@ -10528,7 +10528,7 @@
         <v>16</v>
       </c>
       <c r="D228" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E228" t="s">
         <v>18</v>
@@ -10555,10 +10555,10 @@
         <v>23</v>
       </c>
       <c r="M228">
-        <v>5.5</v>
+        <v>8.0</v>
       </c>
       <c r="N228" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -10572,7 +10572,7 @@
         <v>16</v>
       </c>
       <c r="D229" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E229" t="s">
         <v>18</v>
@@ -10599,10 +10599,10 @@
         <v>23</v>
       </c>
       <c r="M229">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="N229" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -10616,7 +10616,7 @@
         <v>16</v>
       </c>
       <c r="D230" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E230" t="s">
         <v>18</v>
@@ -10643,10 +10643,10 @@
         <v>23</v>
       </c>
       <c r="M230">
-        <v>6.0</v>
+        <v>5.5</v>
       </c>
       <c r="N230" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -10660,7 +10660,7 @@
         <v>16</v>
       </c>
       <c r="D231" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E231" t="s">
         <v>18</v>
@@ -10687,7 +10687,7 @@
         <v>23</v>
       </c>
       <c r="M231">
-        <v>7.0</v>
+        <v>17.5</v>
       </c>
       <c r="N231" t="s">
         <v>23</v>
@@ -10704,7 +10704,7 @@
         <v>16</v>
       </c>
       <c r="D232" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E232" t="s">
         <v>18</v>
@@ -10731,7 +10731,7 @@
         <v>24</v>
       </c>
       <c r="M232">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="N232" t="s">
         <v>23</v>
@@ -10748,7 +10748,7 @@
         <v>16</v>
       </c>
       <c r="D233" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E233" t="s">
         <v>18</v>
@@ -10792,7 +10792,7 @@
         <v>16</v>
       </c>
       <c r="D234" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E234" t="s">
         <v>18</v>
@@ -10819,7 +10819,7 @@
         <v>24</v>
       </c>
       <c r="M234">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="N234" t="s">
         <v>23</v>
@@ -10836,7 +10836,7 @@
         <v>16</v>
       </c>
       <c r="D235" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E235" t="s">
         <v>18</v>
@@ -10863,7 +10863,7 @@
         <v>24</v>
       </c>
       <c r="M235">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="N235" t="s">
         <v>23</v>
@@ -10880,7 +10880,7 @@
         <v>16</v>
       </c>
       <c r="D236" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E236" t="s">
         <v>18</v>
@@ -10907,7 +10907,7 @@
         <v>24</v>
       </c>
       <c r="M236">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="N236" t="s">
         <v>23</v>
@@ -10924,7 +10924,7 @@
         <v>16</v>
       </c>
       <c r="D237" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E237" t="s">
         <v>18</v>
@@ -10951,7 +10951,7 @@
         <v>24</v>
       </c>
       <c r="M237">
-        <v>11.5</v>
+        <v>13.0</v>
       </c>
       <c r="N237" t="s">
         <v>23</v>
@@ -10995,10 +10995,10 @@
         <v>24</v>
       </c>
       <c r="M238">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="N238" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -11012,7 +11012,7 @@
         <v>16</v>
       </c>
       <c r="D239" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E239" t="s">
         <v>18</v>
@@ -11039,7 +11039,7 @@
         <v>24</v>
       </c>
       <c r="M239">
-        <v>15.0</v>
+        <v>11.5</v>
       </c>
       <c r="N239" t="s">
         <v>23</v>
@@ -11056,7 +11056,7 @@
         <v>16</v>
       </c>
       <c r="D240" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E240" t="s">
         <v>18</v>
@@ -11083,10 +11083,10 @@
         <v>24</v>
       </c>
       <c r="M240">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="N240" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -11100,7 +11100,7 @@
         <v>16</v>
       </c>
       <c r="D241" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E241" t="s">
         <v>18</v>
@@ -11127,10 +11127,10 @@
         <v>24</v>
       </c>
       <c r="M241">
-        <v>13.0</v>
+        <v>4.5</v>
       </c>
       <c r="N241" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
